--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>Type of Case
 (Defendant / Plaintiff)</t>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>Hearing</t>
   </si>
   <si>
     <t>Open</t>
@@ -247,76 +250,71 @@
     <t>High</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
     <t>25-03-2023</t>
   </si>
   <si>
     <t>2023-2024</t>
   </si>
   <si>
-    <t>Hearingof 26-Feb-2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">		</t>
   </si>
   <si>
-    <t>12-feb-2023</t>
-  </si>
-  <si>
-    <t>18-feb-2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Others #Delhi Value Added Tax Act, 2004 </t>
   </si>
   <si>
     <t xml:space="preserve">  Debit card</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12-apr-2024</t>
-  </si>
-  <si>
     <t>Order date 23aug23</t>
   </si>
   <si>
+    <t>18-feb-2024</t>
+  </si>
+  <si>
+    <t>12-feb-2024</t>
+  </si>
+  <si>
+    <t>Hearingof 26-Feb-2024</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
-Mayur Gaikwad</t>
+Deepali Dev</t>
+  </si>
+  <si>
+    <t>Gujrat High Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13-Aug-2024</t>
+  </si>
+  <si>
+    <t>A pvt ltd</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-Mayur Gaikwad</t>
-  </si>
-  <si>
-    <t>A Pvt Ltd</t>
-  </si>
-  <si>
-    <t>ABC and Advocates</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>Order date 19feb2024</t>
+ABC and Advocates</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-snehal.patil111@tlregtech.in</t>
+ABC and Advocates</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-snehal.patil111@tlregtech.in</t>
+mayuri@tlregtech.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+mayuri@tlregtech.in</t>
   </si>
   <si>
     <t xml:space="preserve">	
-snehal.patil111@tlregtech.in</t>
+mayuri@tlregtech.in</t>
   </si>
   <si>
     <t xml:space="preserve">	
-snehal.patil111@tlregtech.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mumbai court</t>
+mayuri@tlregtech.in</t>
+  </si>
+  <si>
+    <t>Order date 7april2024</t>
   </si>
 </sst>
 </file>
@@ -327,7 +325,7 @@
     <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -386,6 +384,14 @@
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -469,10 +475,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -597,8 +604,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -981,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1073,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>15</v>
@@ -1118,10 +1129,10 @@
         <v>28</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>29</v>
@@ -1130,7 +1141,7 @@
         <v>30</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK1" s="6" t="s">
         <v>31</v>
@@ -1142,39 +1153,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>950116</v>
+        <v>7342453</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L2" s="33"/>
       <c r="M2" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N2" s="34" t="s">
         <v>83</v>
@@ -1185,10 +1196,10 @@
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
@@ -1201,24 +1212,24 @@
       <c r="AB2" s="33"/>
       <c r="AC2" s="33"/>
       <c r="AD2" s="33"/>
-      <c r="AE2" s="33" t="s">
+      <c r="AE2" s="34" t="s">
         <v>84</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG2" s="33"/>
+        <v>88</v>
+      </c>
+      <c r="AG2" s="44"/>
       <c r="AH2" s="33" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AI2" s="33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AJ2" s="35" t="s">
         <v>71</v>
       </c>
       <c r="AK2" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL2" s="33">
         <v>4000</v>
@@ -1227,39 +1238,39 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="33">
-        <v>1915724</v>
+        <v>53246</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>83</v>
@@ -1270,10 +1281,10 @@
       </c>
       <c r="Q3" s="33"/>
       <c r="R3" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S3" s="33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T3" s="33"/>
       <c r="U3" s="33"/>
@@ -1286,24 +1297,24 @@
       <c r="AB3" s="33"/>
       <c r="AC3" s="33"/>
       <c r="AD3" s="33"/>
-      <c r="AE3" s="33" t="s">
-        <v>84</v>
+      <c r="AE3" s="34" t="s">
+        <v>85</v>
       </c>
       <c r="AF3" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="AG3" s="33"/>
+      <c r="AG3" s="44"/>
       <c r="AH3" s="33" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AI3" s="33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AJ3" s="35" t="s">
         <v>71</v>
       </c>
       <c r="AK3" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL3" s="33">
         <v>4000</v>
@@ -1342,36 +1353,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>950116</v>
+        <v>7342453</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" s="38">
         <v>142435</v>
@@ -1379,10 +1390,10 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>73</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>74</v>
       </c>
       <c r="H2" s="24"/>
     </row>
@@ -1403,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1420,39 +1431,39 @@
   <sheetData>
     <row r="1" spans="1:6" s="13" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>950116</v>
+        <v>7342453</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F2" s="41"/>
     </row>
@@ -1467,7 +1478,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,46 +1496,46 @@
   <sheetData>
     <row r="1" spans="1:9" s="31" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>54</v>
-      </c>
       <c r="I1" s="28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>940116</v>
+        <v>10150164</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">
-        <v>950116</v>
+        <v>7342453</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" s="42">
         <v>457657</v>

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Case Payments" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:F15"/>
 </workbook>
 </file>
 
@@ -314,7 +310,7 @@
 mayuri@tlregtech.in</t>
   </si>
   <si>
-    <t>Order date 7april2024</t>
+    <t>Order date12april2024</t>
   </si>
 </sst>
 </file>
@@ -992,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1157,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>7342453</v>
+        <v>9818753</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1246,7 +1242,7 @@
         <v>66</v>
       </c>
       <c r="C3" s="33">
-        <v>53246</v>
+        <v>2234246</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33" t="s">
@@ -1334,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1375,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>7342453</v>
+        <v>9818753</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>82</v>
@@ -1414,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1447,7 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>7342453</v>
+        <v>9818753</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
@@ -1477,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,11 +1521,11 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>10150164</v>
+        <v>9818753</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">
-        <v>7342453</v>
+        <v>9818753</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>75</v>

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Litigation-Project 10 April2024\Litigation-Project 10 April2024\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="Case Payments" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F15"/>
 </workbook>
 </file>
 
@@ -310,7 +314,7 @@
 mayuri@tlregtech.in</t>
   </si>
   <si>
-    <t>Order date12april2024</t>
+    <t>Order date13april2024</t>
   </si>
 </sst>
 </file>
@@ -992,45 +996,45 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" customWidth="1"/>
+    <col min="10" max="10" width="32.81640625" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
     <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="56.5703125" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1"/>
-    <col min="15" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="25.85546875" customWidth="1"/>
-    <col min="18" max="18" width="30.140625" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="25" width="14.42578125" customWidth="1"/>
-    <col min="26" max="26" width="20.28515625" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="56.54296875" customWidth="1"/>
+    <col min="14" max="14" width="21.81640625" customWidth="1"/>
+    <col min="15" max="16" width="17.81640625" customWidth="1"/>
+    <col min="17" max="17" width="25.81640625" customWidth="1"/>
+    <col min="18" max="18" width="30.1796875" customWidth="1"/>
+    <col min="19" max="19" width="15.7265625" customWidth="1"/>
+    <col min="20" max="25" width="14.453125" customWidth="1"/>
+    <col min="26" max="26" width="20.26953125" customWidth="1"/>
+    <col min="27" max="27" width="12.453125" customWidth="1"/>
+    <col min="28" max="28" width="13.1796875" customWidth="1"/>
     <col min="29" max="29" width="15" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" customWidth="1"/>
-    <col min="31" max="31" width="19.85546875" customWidth="1"/>
-    <col min="32" max="32" width="32.7109375" customWidth="1"/>
+    <col min="30" max="30" width="14.453125" customWidth="1"/>
+    <col min="31" max="31" width="19.81640625" customWidth="1"/>
+    <col min="32" max="32" width="32.7265625" customWidth="1"/>
     <col min="33" max="33" width="23" customWidth="1"/>
-    <col min="34" max="34" width="15.5703125" customWidth="1"/>
-    <col min="35" max="35" width="13.140625" customWidth="1"/>
-    <col min="36" max="36" width="21.5703125" customWidth="1"/>
+    <col min="34" max="34" width="15.54296875" customWidth="1"/>
+    <col min="35" max="35" width="13.1796875" customWidth="1"/>
+    <col min="36" max="36" width="21.54296875" customWidth="1"/>
     <col min="37" max="37" width="16" customWidth="1"/>
-    <col min="38" max="38" width="11.5703125" customWidth="1"/>
-    <col min="39" max="39" width="12.42578125" customWidth="1"/>
-    <col min="40" max="1024" width="8.5703125" customWidth="1"/>
+    <col min="38" max="38" width="11.54296875" customWidth="1"/>
+    <col min="39" max="39" width="12.453125" customWidth="1"/>
+    <col min="40" max="1024" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>9818753</v>
+        <v>9328753</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1234,7 +1238,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>66</v>
       </c>
       <c r="C3" s="33">
-        <v>2234246</v>
+        <v>2214246</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33" t="s">
@@ -1319,7 +1323,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1330,24 +1334,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="12" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" customWidth="1"/>
-    <col min="9" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="35.81640625" customWidth="1"/>
+    <col min="9" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -1373,9 +1377,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="36">
-        <v>9818753</v>
+        <v>9328753</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>82</v>
@@ -1393,7 +1397,7 @@
       </c>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C3"/>
       <c r="E3" s="26"/>
       <c r="F3" s="11"/>
@@ -1411,21 +1415,21 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" style="11" customWidth="1"/>
-    <col min="7" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="34.54296875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="38.81640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="38.54296875" style="11" customWidth="1"/>
+    <col min="7" max="1025" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1445,9 +1449,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
-        <v>9818753</v>
+        <v>9328753</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
@@ -1474,23 +1478,23 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="33.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="1026" width="8.5703125" customWidth="1"/>
+    <col min="1" max="2" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" customWidth="1"/>
+    <col min="4" max="4" width="40.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="33.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" customWidth="1"/>
+    <col min="10" max="1026" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="31" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="31" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>47</v>
       </c>
@@ -1519,13 +1523,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>9818753</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">
-        <v>9818753</v>
+        <v>9328753</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>75</v>

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -265,9 +265,6 @@
     <t xml:space="preserve">  Debit card</t>
   </si>
   <si>
-    <t>Order date 23aug23</t>
-  </si>
-  <si>
     <t>18-feb-2024</t>
   </si>
   <si>
@@ -314,7 +311,10 @@
 mayuri@tlregtech.in</t>
   </si>
   <si>
-    <t>Order date13april2024</t>
+    <t>Order date 24aug25</t>
+  </si>
+  <si>
+    <t>Order date14april2025</t>
   </si>
 </sst>
 </file>
@@ -992,49 +992,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
-    <col min="9" max="9" width="26.81640625" customWidth="1"/>
-    <col min="10" max="10" width="32.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
     <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="56.54296875" customWidth="1"/>
-    <col min="14" max="14" width="21.81640625" customWidth="1"/>
-    <col min="15" max="16" width="17.81640625" customWidth="1"/>
-    <col min="17" max="17" width="25.81640625" customWidth="1"/>
-    <col min="18" max="18" width="30.1796875" customWidth="1"/>
-    <col min="19" max="19" width="15.7265625" customWidth="1"/>
-    <col min="20" max="25" width="14.453125" customWidth="1"/>
-    <col min="26" max="26" width="20.26953125" customWidth="1"/>
-    <col min="27" max="27" width="12.453125" customWidth="1"/>
-    <col min="28" max="28" width="13.1796875" customWidth="1"/>
+    <col min="13" max="13" width="56.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1"/>
+    <col min="15" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="25" width="14.42578125" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" customWidth="1"/>
     <col min="29" max="29" width="15" customWidth="1"/>
-    <col min="30" max="30" width="14.453125" customWidth="1"/>
-    <col min="31" max="31" width="19.81640625" customWidth="1"/>
-    <col min="32" max="32" width="32.7265625" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" customWidth="1"/>
+    <col min="31" max="31" width="19.85546875" customWidth="1"/>
+    <col min="32" max="32" width="32.7109375" customWidth="1"/>
     <col min="33" max="33" width="23" customWidth="1"/>
-    <col min="34" max="34" width="15.54296875" customWidth="1"/>
-    <col min="35" max="35" width="13.1796875" customWidth="1"/>
-    <col min="36" max="36" width="21.54296875" customWidth="1"/>
+    <col min="34" max="34" width="15.5703125" customWidth="1"/>
+    <col min="35" max="35" width="13.140625" customWidth="1"/>
+    <col min="36" max="36" width="21.5703125" customWidth="1"/>
     <col min="37" max="37" width="16" customWidth="1"/>
-    <col min="38" max="38" width="11.54296875" customWidth="1"/>
-    <col min="39" max="39" width="12.453125" customWidth="1"/>
-    <col min="40" max="1024" width="8.54296875" customWidth="1"/>
+    <col min="38" max="38" width="11.5703125" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" customWidth="1"/>
+    <col min="40" max="1024" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="10" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>9328753</v>
+        <v>32760023</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1177,18 +1177,18 @@
         <v>35</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L2" s="33"/>
       <c r="M2" s="33" t="s">
         <v>67</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" s="33"/>
       <c r="P2" s="33" t="s">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>70</v>
@@ -1213,10 +1213,10 @@
       <c r="AC2" s="33"/>
       <c r="AD2" s="33"/>
       <c r="AE2" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG2" s="44"/>
       <c r="AH2" s="33" t="s">
@@ -1238,7 +1238,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>66</v>
       </c>
       <c r="C3" s="33">
-        <v>2214246</v>
+        <v>29765426</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33" t="s">
@@ -1262,18 +1262,18 @@
         <v>35</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O3" s="33"/>
       <c r="P3" s="33" t="s">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="Q3" s="33"/>
       <c r="R3" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S3" s="33" t="s">
         <v>70</v>
@@ -1298,10 +1298,10 @@
       <c r="AC3" s="33"/>
       <c r="AD3" s="33"/>
       <c r="AE3" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF3" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG3" s="44"/>
       <c r="AH3" s="33" t="s">
@@ -1323,7 +1323,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1338,20 +1338,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="12" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="35.81640625" customWidth="1"/>
-    <col min="9" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" customWidth="1"/>
+    <col min="9" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -1377,12 +1377,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>9328753</v>
+        <v>32760023</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="38">
         <v>142435</v>
@@ -1390,14 +1390,14 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="39" t="s">
         <v>73</v>
       </c>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3"/>
       <c r="E3" s="26"/>
       <c r="F3" s="11"/>
@@ -1415,21 +1415,21 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="34.54296875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="38.81640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="38.54296875" style="11" customWidth="1"/>
-    <col min="7" max="1025" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="26" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" style="11" customWidth="1"/>
+    <col min="7" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1449,21 +1449,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>9328753</v>
+        <v>32760023</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>90</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F2" s="41"/>
     </row>
@@ -1481,20 +1481,20 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="23.54296875" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" customWidth="1"/>
-    <col min="4" max="4" width="40.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="26" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="33.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
-    <col min="10" max="1026" width="8.54296875" customWidth="1"/>
+    <col min="1" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="1026" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="31" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="31" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>47</v>
       </c>
@@ -1523,19 +1523,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>9818753</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">
-        <v>9328753</v>
+        <v>32760023</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>75</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="42">
         <v>457657</v>
